--- a/IEDC_LookupTable_fill/types_data.xlsx
+++ b/IEDC_LookupTable_fill/types_data.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>id</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Stock</t>
   </si>
   <si>
-    <t>General stock</t>
-  </si>
-  <si>
     <t>S</t>
   </si>
   <si>
@@ -130,9 +127,6 @@
     <t>PC</t>
   </si>
   <si>
-    <t>Per capita stocks</t>
-  </si>
-  <si>
     <t>stock per person, e.g., cars per capita</t>
   </si>
   <si>
@@ -149,6 +143,51 @@
   </si>
   <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>Per capita stock</t>
+  </si>
+  <si>
+    <t>stocks of all kind</t>
+  </si>
+  <si>
+    <t>in-use stocks only</t>
+  </si>
+  <si>
+    <t>population figures only</t>
+  </si>
+  <si>
+    <t>typically in use phase, or residence time in landfill etc.</t>
+  </si>
+  <si>
+    <t>m.c. of products, alloys, waste/scrap, etc.</t>
+  </si>
+  <si>
+    <t>share (in %) of something</t>
+  </si>
+  <si>
+    <t>price data</t>
+  </si>
+  <si>
+    <t>material or energy yield of processes</t>
+  </si>
+  <si>
+    <t>capacity of processes</t>
+  </si>
+  <si>
+    <t>service (physical or immaterial) extracted from products</t>
+  </si>
+  <si>
+    <t>energy per unit of use of products, e.g., MJ/km of vehicle driven</t>
+  </si>
+  <si>
+    <t>Material substitution coefficient</t>
+  </si>
+  <si>
+    <t>Amount of material 1 substituted by amount of material 2.</t>
+  </si>
+  <si>
+    <t>MSC</t>
   </si>
 </sst>
 </file>
@@ -214,7 +253,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -519,12 +558,16 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="B23" sqref="A19:B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="34.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -532,7 +575,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -550,7 +593,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -568,7 +611,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -576,294 +619,320 @@
         <v>9</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="D3" s="5">
         <v>2</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="D4" s="5">
         <v>2</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="D5" s="5">
         <v>2</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D6" s="5">
         <v>3</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="D7" s="5">
         <v>3</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="D8" s="5">
         <v>3</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="D9" s="5">
         <v>3</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="D10" s="5">
         <v>4</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="D11" s="5">
         <v>4</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="D12" s="5">
         <v>5</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="D13" s="5">
         <v>3</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="D14" s="5">
         <v>3</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="D15" s="5">
         <v>4</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D16" s="5">
         <v>6</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D17" s="5">
         <v>6</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="4"/>
+      <c r="B18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="5">
+        <v>6</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
       <c r="D19" s="5"/>
@@ -872,10 +941,8 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
       <c r="D20" s="5"/>

--- a/IEDC_LookupTable_fill/types_data.xlsx
+++ b/IEDC_LookupTable_fill/types_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>id</t>
   </si>
@@ -188,6 +188,24 @@
   </si>
   <si>
     <t>MSC</t>
+  </si>
+  <si>
+    <t>Process inventory</t>
+  </si>
+  <si>
+    <t>Unit process inventory</t>
+  </si>
+  <si>
+    <t>PI</t>
+  </si>
+  <si>
+    <t>UPI</t>
+  </si>
+  <si>
+    <t>flows entering and leaving process, for LCI datasets</t>
+  </si>
+  <si>
+    <t>flows entering and leaving process, normalized, for LCI datasets</t>
   </si>
 </sst>
 </file>
@@ -558,13 +576,13 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="A19:B23"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="34.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -932,21 +950,41 @@
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="4"/>
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="4"/>
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="5">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
